--- a/实验-11.xlsx
+++ b/实验-11.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AEF36A-9909-49E3-A10E-C38728CC55A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="16884" yWindow="-144" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <r>
       <t xml:space="preserve">f </t>
@@ -35,10 +36,6 @@
       </rPr>
       <t>(Hz)</t>
     </r>
-  </si>
-  <si>
-    <t>Δφ(°)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -75,11 +72,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>输入（mV）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出（mV）</t>
+    <t>T(ms)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -87,15 +80,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T(ms)</t>
+    <t>φ(°)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|H(jω)|</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hjw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w/w0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>φ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入电压（mV）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出电压（mV）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hjw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w/w0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>φ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +197,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -181,7 +225,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -350,11 +394,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -411,7 +494,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -693,27 +788,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <f>1/(2*PI()*22)*100000</f>
         <v>723.43155950861535</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -759,10 +867,23 @@
       <c r="O3" s="5">
         <v>6900</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q3">
+        <v>69</v>
+      </c>
+      <c r="R3">
+        <v>9.3907532958565895E-2</v>
+      </c>
+      <c r="S3">
+        <f>Q3/692</f>
+        <v>9.9710982658959543E-2</v>
+      </c>
+      <c r="T3">
+        <v>73.153999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="16">
         <v>3004.53</v>
@@ -806,10 +927,23 @@
       <c r="O4" s="18">
         <v>2992.77</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q4">
+        <v>100</v>
+      </c>
+      <c r="R4">
+        <v>0.13150870000698797</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S4:S16" si="0">Q4/692</f>
+        <v>0.14450867052023122</v>
+      </c>
+      <c r="T4">
+        <v>66.328000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="7">
         <v>282.14800000000002</v>
@@ -853,71 +987,97 @@
       <c r="O5" s="9">
         <v>300.54500000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q5">
+        <v>300</v>
+      </c>
+      <c r="R5">
+        <v>0.27844894180951241</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>0.43352601156069365</v>
+      </c>
+      <c r="T5">
+        <v>33.006999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" s="7">
-        <f>1/B3*1000</f>
+        <f t="shared" ref="B6:O6" si="1">1/B3*1000</f>
         <v>14.492753623188406</v>
       </c>
       <c r="C6" s="7">
-        <f>1/C3*1000</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="D6" s="7">
-        <f>1/D3*1000</f>
+        <f t="shared" si="1"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="E6" s="7">
-        <f>1/E3*1000</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F6" s="7">
-        <f>1/F3*1000</f>
+        <f t="shared" si="1"/>
         <v>1.5384615384615385</v>
       </c>
       <c r="G6" s="7">
-        <f>1/G3*1000</f>
+        <f t="shared" si="1"/>
         <v>1.4925373134328359</v>
       </c>
       <c r="H6" s="8">
-        <f>1/H3*1000</f>
+        <f t="shared" si="1"/>
         <v>1.445086705202312</v>
       </c>
       <c r="I6" s="7">
-        <f>1/I3*1000</f>
+        <f t="shared" si="1"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="J6" s="7">
-        <f>1/J3*1000</f>
+        <f t="shared" si="1"/>
         <v>1.3698630136986301</v>
       </c>
       <c r="K6" s="7">
-        <f>1/K3*1000</f>
+        <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
       <c r="L6" s="7">
-        <f>1/L3*1000</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M6" s="11">
-        <f>1/M3*1000</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="N6" s="11">
-        <f>1/N3*1000</f>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="O6" s="12">
-        <f>1/O3*1000</f>
+        <f t="shared" si="1"/>
         <v>0.14492753623188406</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <v>500</v>
+      </c>
+      <c r="R6">
+        <v>0.32290662625522493</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>0.7225433526011561</v>
+      </c>
+      <c r="T6">
+        <v>13.161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7" s="14">
         <v>73.153999999999996</v>
@@ -961,25 +1121,93 @@
       <c r="O7" s="15">
         <v>-72.03</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="20">
+      <c r="Q7">
+        <v>650</v>
+      </c>
+      <c r="R7">
+        <v>0.33154186225484156</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>0.93930635838150289</v>
+      </c>
+      <c r="T7">
+        <v>2.875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q8">
+        <v>670</v>
+      </c>
+      <c r="R8">
+        <v>0.331991976515982</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>0.96820809248554918</v>
+      </c>
+      <c r="T8">
+        <v>2.1345000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="21">
         <v>24.720300000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="20">
+      <c r="Q9">
+        <v>692</v>
+      </c>
+      <c r="R9">
+        <v>0.33217649430131563</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="21">
         <v>294.416</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q10">
+        <v>700</v>
+      </c>
+      <c r="R10">
+        <v>0.33213608696666119</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>1.0115606936416186</v>
+      </c>
+      <c r="T10">
+        <v>-0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q11">
+        <v>730</v>
+      </c>
+      <c r="R11">
+        <v>0.33216871283170357</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>1.0549132947976878</v>
+      </c>
+      <c r="T11">
+        <v>-1.5629999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -1025,10 +1253,23 @@
       <c r="O12" s="5">
         <v>7140</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q12">
+        <v>800</v>
+      </c>
+      <c r="R12">
+        <v>0.33126128767835367</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>1.1560693641618498</v>
+      </c>
+      <c r="T12">
+        <v>-5.5750000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="16">
         <v>3003.07</v>
@@ -1072,10 +1313,23 @@
       <c r="O13" s="18">
         <v>2952.68</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q13">
+        <v>1000</v>
+      </c>
+      <c r="R13">
+        <v>0.32383107943693146</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>1.4450867052023122</v>
+      </c>
+      <c r="T13">
+        <v>-13.629</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="7">
         <v>2724.72</v>
@@ -1119,71 +1373,97 @@
       <c r="O14" s="9">
         <v>2711.72</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q14">
+        <v>3000</v>
+      </c>
+      <c r="R14">
+        <v>0.2011773033542795</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>4.3352601156069364</v>
+      </c>
+      <c r="T14">
+        <v>-51.752000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B15" s="7">
-        <f>1/B12*1000</f>
+        <f t="shared" ref="B15:O15" si="2">1/B12*1000</f>
         <v>14.084507042253522</v>
       </c>
       <c r="C15" s="7">
-        <f>1/C12*1000</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="D15" s="7">
-        <f>1/D12*1000</f>
+        <f t="shared" si="2"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="E15" s="7">
-        <f>1/E12*1000</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F15" s="7">
-        <f>1/F12*1000</f>
+        <f t="shared" si="2"/>
         <v>1.5384615384615385</v>
       </c>
       <c r="G15" s="7">
-        <f>1/G12*1000</f>
+        <f t="shared" si="2"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="H15" s="8">
-        <f>1/H12*1000</f>
+        <f t="shared" si="2"/>
         <v>1.4044943820224718</v>
       </c>
       <c r="I15" s="7">
-        <f>1/I12*1000</f>
+        <f t="shared" si="2"/>
         <v>1.3888888888888888</v>
       </c>
       <c r="J15" s="7">
-        <f>1/J12*1000</f>
+        <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="K15" s="7">
-        <f>1/K12*1000</f>
+        <f t="shared" si="2"/>
         <v>1.25</v>
       </c>
       <c r="L15" s="7">
-        <f>1/L12*1000</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M15" s="11">
-        <f>1/M12*1000</f>
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="N15" s="11">
-        <f>1/N12*1000</f>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="O15" s="12">
-        <f>1/O12*1000</f>
+        <f t="shared" si="2"/>
         <v>0.14005602240896359</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q15">
+        <v>5000</v>
+      </c>
+      <c r="R15">
+        <v>0.13405203517117889</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>7.2254335260115603</v>
+      </c>
+      <c r="T15">
+        <v>-65.408000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B16" s="14">
         <v>21.893000000000001</v>
@@ -1225,12 +1505,845 @@
         <v>-29.395</v>
       </c>
       <c r="O16" s="15">
+        <v>-21.521999999999998</v>
+      </c>
+      <c r="Q16">
+        <v>6900</v>
+      </c>
+      <c r="R16">
+        <v>0.10042368775415418</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="0"/>
+        <v>9.9710982658959537</v>
+      </c>
+      <c r="T16">
+        <v>-72.03</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3">
+        <v>69</v>
+      </c>
+      <c r="C18" s="3">
+        <v>100</v>
+      </c>
+      <c r="D18" s="3">
+        <v>300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>650</v>
+      </c>
+      <c r="G18" s="3">
+        <v>670</v>
+      </c>
+      <c r="H18" s="3">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="14">
+        <f>B5/B4</f>
+        <v>9.3907532958565895E-2</v>
+      </c>
+      <c r="C19" s="14">
+        <f t="shared" ref="C19:O19" si="3">C5/C4</f>
+        <v>0.13150870000698797</v>
+      </c>
+      <c r="D19" s="14">
+        <f t="shared" si="3"/>
+        <v>0.27844894180951241</v>
+      </c>
+      <c r="E19" s="14">
+        <f t="shared" si="3"/>
+        <v>0.32290662625522493</v>
+      </c>
+      <c r="F19" s="14">
+        <f t="shared" si="3"/>
+        <v>0.33154186225484156</v>
+      </c>
+      <c r="G19" s="14">
+        <f t="shared" si="3"/>
+        <v>0.331991976515982</v>
+      </c>
+      <c r="H19" s="14">
+        <f t="shared" si="3"/>
+        <v>0.33217649430131563</v>
+      </c>
+      <c r="J19">
+        <v>9.3907532958565895E-2</v>
+      </c>
+      <c r="K19">
+        <v>0.13150870000698797</v>
+      </c>
+      <c r="L19">
+        <v>0.27844894180951241</v>
+      </c>
+      <c r="M19">
+        <v>0.32290662625522493</v>
+      </c>
+      <c r="N19">
+        <v>0.33154186225484156</v>
+      </c>
+      <c r="O19">
+        <v>0.331991976515982</v>
+      </c>
+      <c r="P19">
+        <v>0.33217649430131563</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="14">
+        <v>73.153999999999996</v>
+      </c>
+      <c r="C20" s="14">
+        <v>66.328000000000003</v>
+      </c>
+      <c r="D20" s="14">
+        <v>33.006999999999998</v>
+      </c>
+      <c r="E20" s="14">
+        <v>13.161</v>
+      </c>
+      <c r="F20" s="14">
+        <v>2.875</v>
+      </c>
+      <c r="G20" s="14">
+        <v>2.1345000000000001</v>
+      </c>
+      <c r="H20" s="14">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J20">
+        <v>73.153999999999996</v>
+      </c>
+      <c r="K20">
+        <v>66.328000000000003</v>
+      </c>
+      <c r="L20">
+        <v>33.006999999999998</v>
+      </c>
+      <c r="M20">
+        <v>13.161</v>
+      </c>
+      <c r="N20">
+        <v>2.875</v>
+      </c>
+      <c r="O20">
+        <v>2.1345000000000001</v>
+      </c>
+      <c r="P20">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="Q20">
+        <v>-0.42499999999999999</v>
+      </c>
+      <c r="R20">
+        <v>-1.5629999999999999</v>
+      </c>
+      <c r="S20">
+        <v>-5.5750000000000002</v>
+      </c>
+      <c r="T20">
+        <v>-13.629</v>
+      </c>
+      <c r="U20">
+        <v>-51.752000000000002</v>
+      </c>
+      <c r="V20">
+        <v>-65.408000000000001</v>
+      </c>
+      <c r="W20">
+        <v>-72.03</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="3">
+        <v>700</v>
+      </c>
+      <c r="C21" s="3">
+        <v>730</v>
+      </c>
+      <c r="D21" s="3">
+        <v>800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G21" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H21" s="5">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="14">
+        <f>I5/I4</f>
+        <v>0.33213608696666119</v>
+      </c>
+      <c r="C22" s="14">
+        <f>J5/J4</f>
+        <v>0.33216871283170357</v>
+      </c>
+      <c r="D22" s="14">
+        <f>K5/K4</f>
+        <v>0.33126128767835367</v>
+      </c>
+      <c r="E22" s="14">
+        <f>L5/L4</f>
+        <v>0.32383107943693146</v>
+      </c>
+      <c r="F22" s="14">
+        <f>M5/M4</f>
+        <v>0.2011773033542795</v>
+      </c>
+      <c r="G22" s="14">
+        <f>N5/N4</f>
+        <v>0.13405203517117889</v>
+      </c>
+      <c r="H22" s="14">
+        <f>O5/O4</f>
+        <v>0.10042368775415418</v>
+      </c>
+      <c r="J22">
+        <v>0.33213608696666119</v>
+      </c>
+      <c r="K22">
+        <v>0.33216871283170357</v>
+      </c>
+      <c r="L22">
+        <v>0.33126128767835367</v>
+      </c>
+      <c r="M22">
+        <v>0.32383107943693146</v>
+      </c>
+      <c r="N22">
+        <v>0.2011773033542795</v>
+      </c>
+      <c r="O22">
+        <v>0.13405203517117889</v>
+      </c>
+      <c r="P22">
+        <v>0.10042368775415418</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="14">
+        <v>-0.42499999999999999</v>
+      </c>
+      <c r="C23" s="14">
+        <v>-1.5629999999999999</v>
+      </c>
+      <c r="D23" s="14">
+        <v>-5.5750000000000002</v>
+      </c>
+      <c r="E23" s="14">
+        <v>-13.629</v>
+      </c>
+      <c r="F23" s="14">
+        <v>-51.752000000000002</v>
+      </c>
+      <c r="G23" s="14">
+        <v>-65.408000000000001</v>
+      </c>
+      <c r="H23" s="15">
+        <v>-72.03</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>69</v>
+      </c>
+      <c r="B25">
+        <v>100</v>
+      </c>
+      <c r="C25">
+        <v>300</v>
+      </c>
+      <c r="D25">
+        <v>500</v>
+      </c>
+      <c r="E25">
+        <v>650</v>
+      </c>
+      <c r="F25">
+        <v>670</v>
+      </c>
+      <c r="G25">
+        <v>692</v>
+      </c>
+      <c r="H25">
+        <v>700</v>
+      </c>
+      <c r="I25">
+        <v>730</v>
+      </c>
+      <c r="J25">
+        <v>800</v>
+      </c>
+      <c r="K25">
+        <v>1000</v>
+      </c>
+      <c r="L25">
+        <v>3000</v>
+      </c>
+      <c r="M25">
+        <v>5000</v>
+      </c>
+      <c r="N25">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="3">
+        <v>71</v>
+      </c>
+      <c r="C27" s="3">
+        <v>100</v>
+      </c>
+      <c r="D27" s="3">
+        <v>300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>500</v>
+      </c>
+      <c r="F27" s="3">
+        <v>650</v>
+      </c>
+      <c r="G27" s="3">
+        <v>700</v>
+      </c>
+      <c r="H27" s="5">
+        <v>712</v>
+      </c>
+      <c r="J27">
+        <v>71</v>
+      </c>
+      <c r="K27">
+        <v>100</v>
+      </c>
+      <c r="L27">
+        <v>300</v>
+      </c>
+      <c r="M27">
+        <v>500</v>
+      </c>
+      <c r="N27">
+        <v>650</v>
+      </c>
+      <c r="O27">
+        <v>700</v>
+      </c>
+      <c r="P27">
+        <v>712</v>
+      </c>
+      <c r="Q27">
+        <v>720</v>
+      </c>
+      <c r="R27">
+        <v>750</v>
+      </c>
+      <c r="S27">
+        <v>800</v>
+      </c>
+      <c r="T27">
+        <v>1000</v>
+      </c>
+      <c r="U27">
+        <v>3000</v>
+      </c>
+      <c r="V27">
+        <v>5000</v>
+      </c>
+      <c r="W27">
+        <v>7140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="7">
+        <f>B14/B13</f>
+        <v>0.90731151788003594</v>
+      </c>
+      <c r="C28" s="7">
+        <f t="shared" ref="C28:H28" si="4">C14/C13</f>
+        <v>0.85037935559507871</v>
+      </c>
+      <c r="D28" s="7">
+        <f t="shared" si="4"/>
+        <v>0.43347329492733788</v>
+      </c>
+      <c r="E28" s="7">
+        <f t="shared" si="4"/>
+        <v>0.1760826492119657</v>
+      </c>
+      <c r="F28" s="7">
+        <f t="shared" si="4"/>
+        <v>4.5421464008237392E-2</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" si="4"/>
+        <v>9.2341256440519864E-3</v>
+      </c>
+      <c r="H28" s="9">
+        <f t="shared" si="4"/>
+        <v>3.5632245401562845E-3</v>
+      </c>
+      <c r="J28">
+        <v>0.90731151788003594</v>
+      </c>
+      <c r="K28">
+        <v>0.85037935559507871</v>
+      </c>
+      <c r="L28">
+        <v>0.43347329492733788</v>
+      </c>
+      <c r="M28">
+        <v>0.1760826492119657</v>
+      </c>
+      <c r="N28">
+        <v>4.5421464008237392E-2</v>
+      </c>
+      <c r="O28">
+        <v>9.2341256440519864E-3</v>
+      </c>
+      <c r="P28">
+        <v>3.5632245401562845E-3</v>
+      </c>
+      <c r="Q28">
+        <v>6.5416616221849284E-3</v>
+      </c>
+      <c r="R28">
+        <v>2.626392734373955E-2</v>
+      </c>
+      <c r="S28">
+        <v>5.9710886572146238E-2</v>
+      </c>
+      <c r="T28">
+        <v>0.16856743105600874</v>
+      </c>
+      <c r="U28">
+        <v>0.69145107581967213</v>
+      </c>
+      <c r="V28">
+        <v>0.85522751941785335</v>
+      </c>
+      <c r="W28">
+        <v>0.91839278215045317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="23">
+        <v>21.893000000000001</v>
+      </c>
+      <c r="C29" s="23">
+        <v>29.968</v>
+      </c>
+      <c r="D29" s="23">
+        <v>63.645000000000003</v>
+      </c>
+      <c r="E29" s="23">
+        <v>78.094999999999999</v>
+      </c>
+      <c r="F29" s="23">
+        <v>83.742000000000004</v>
+      </c>
+      <c r="G29" s="23">
+        <v>87.531999999999996</v>
+      </c>
+      <c r="H29" s="24">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J29">
+        <v>21.893000000000001</v>
+      </c>
+      <c r="K29">
+        <v>29.968</v>
+      </c>
+      <c r="L29">
+        <v>63.645000000000003</v>
+      </c>
+      <c r="M29">
+        <v>78.094999999999999</v>
+      </c>
+      <c r="N29">
+        <v>83.742000000000004</v>
+      </c>
+      <c r="O29">
+        <v>87.531999999999996</v>
+      </c>
+      <c r="P29">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="Q29">
+        <v>-89.212999999999994</v>
+      </c>
+      <c r="R29">
+        <v>-82.888000000000005</v>
+      </c>
+      <c r="S29">
+        <v>-84.44</v>
+      </c>
+      <c r="T29">
+        <v>-79.069999999999993</v>
+      </c>
+      <c r="U29">
+        <v>-43.874000000000002</v>
+      </c>
+      <c r="V29">
+        <v>-29.395</v>
+      </c>
+      <c r="W29">
+        <v>-21.521999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="3">
+        <v>720</v>
+      </c>
+      <c r="C30" s="3">
+        <v>750</v>
+      </c>
+      <c r="D30" s="3">
+        <v>800</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F30" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G30" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H30" s="5">
+        <v>7140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="7">
+        <f>I14/I13</f>
+        <v>6.5416616221849284E-3</v>
+      </c>
+      <c r="C31" s="7">
+        <f>J14/J13</f>
+        <v>2.626392734373955E-2</v>
+      </c>
+      <c r="D31" s="7">
+        <f>K14/K13</f>
+        <v>5.9710886572146238E-2</v>
+      </c>
+      <c r="E31" s="7">
+        <f>L14/L13</f>
+        <v>0.16856743105600874</v>
+      </c>
+      <c r="F31" s="7">
+        <f>M14/M13</f>
+        <v>0.69145107581967213</v>
+      </c>
+      <c r="G31" s="7">
+        <f>N14/N13</f>
+        <v>0.85522751941785335</v>
+      </c>
+      <c r="H31" s="9">
+        <f>O14/O13</f>
+        <v>0.91839278215045317</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="23">
+        <v>-89.212999999999994</v>
+      </c>
+      <c r="C32" s="23">
+        <v>-82.888000000000005</v>
+      </c>
+      <c r="D32" s="23">
+        <v>-84.44</v>
+      </c>
+      <c r="E32" s="23">
+        <v>-79.069999999999993</v>
+      </c>
+      <c r="F32" s="23">
+        <v>-43.874000000000002</v>
+      </c>
+      <c r="G32" s="23">
+        <v>-29.395</v>
+      </c>
+      <c r="H32" s="24">
+        <v>-21.521999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>71</v>
+      </c>
+      <c r="B36">
+        <v>0.90731151788003594</v>
+      </c>
+      <c r="C36">
+        <f>A36/712</f>
+        <v>9.9719101123595499E-2</v>
+      </c>
+      <c r="D36">
+        <v>21.893000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>100</v>
+      </c>
+      <c r="B37">
+        <v>0.85037935559507871</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:C49" si="5">A37/712</f>
+        <v>0.1404494382022472</v>
+      </c>
+      <c r="D37">
+        <v>29.968</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>300</v>
+      </c>
+      <c r="B38">
+        <v>0.43347329492733788</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="5"/>
+        <v>0.42134831460674155</v>
+      </c>
+      <c r="D38">
+        <v>63.645000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>500</v>
+      </c>
+      <c r="B39">
+        <v>0.1760826492119657</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="5"/>
+        <v>0.702247191011236</v>
+      </c>
+      <c r="D39">
+        <v>78.094999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>650</v>
+      </c>
+      <c r="B40">
+        <v>4.5421464008237392E-2</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="5"/>
+        <v>0.9129213483146067</v>
+      </c>
+      <c r="D40">
+        <v>83.742000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>700</v>
+      </c>
+      <c r="B41">
+        <v>9.2341256440519864E-3</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="5"/>
+        <v>0.9831460674157303</v>
+      </c>
+      <c r="D41">
+        <v>87.531999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>712</v>
+      </c>
+      <c r="B42">
+        <v>3.5632245401562845E-3</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>720</v>
+      </c>
+      <c r="B43">
+        <v>6.5416616221849284E-3</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="5"/>
+        <v>1.0112359550561798</v>
+      </c>
+      <c r="D43">
+        <v>-89.212999999999994</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>750</v>
+      </c>
+      <c r="B44">
+        <v>2.626392734373955E-2</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="5"/>
+        <v>1.053370786516854</v>
+      </c>
+      <c r="D44">
+        <v>-82.888000000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>800</v>
+      </c>
+      <c r="B45">
+        <v>5.9710886572146238E-2</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="5"/>
+        <v>1.1235955056179776</v>
+      </c>
+      <c r="D45">
+        <v>-84.44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1000</v>
+      </c>
+      <c r="B46">
+        <v>0.16856743105600874</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="5"/>
+        <v>1.404494382022472</v>
+      </c>
+      <c r="D46">
+        <v>-79.069999999999993</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>3000</v>
+      </c>
+      <c r="B47">
+        <v>0.69145107581967213</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="5"/>
+        <v>4.213483146067416</v>
+      </c>
+      <c r="D47">
+        <v>-43.874000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>5000</v>
+      </c>
+      <c r="B48">
+        <v>0.85522751941785335</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="5"/>
+        <v>7.0224719101123592</v>
+      </c>
+      <c r="D48">
+        <v>-29.395</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>7140</v>
+      </c>
+      <c r="B49">
+        <v>0.91839278215045317</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="5"/>
+        <v>10.02808988764045</v>
+      </c>
+      <c r="D49">
         <v>-21.521999999999998</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>